--- a/doc/sundy.xlsx
+++ b/doc/sundy.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F9023-EA33-9144-81C4-D96624F96D3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="5" r:id="rId1"/>
@@ -13,9 +14,10 @@
     <sheet name="版本控制" sheetId="2" r:id="rId4"/>
     <sheet name="Lessson6_Adapter" sheetId="3" r:id="rId5"/>
     <sheet name="Lessson8_ContentProvider" sheetId="4" r:id="rId6"/>
-    <sheet name="多线程" sheetId="6" r:id="rId7"/>
-    <sheet name="==与equals" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="消息机制_2" sheetId="10" r:id="rId7"/>
+    <sheet name="消息机制" sheetId="6" r:id="rId8"/>
+    <sheet name="==与equals" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Today!$A$1:$F$222</definedName>
@@ -26,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E19" authorId="0">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +44,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -58,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +71,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -89,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="398">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1659,22 +1661,47 @@
       <t>，表示不相等。</t>
     </r>
   </si>
+  <si>
+    <t>Looper</t>
+  </si>
+  <si>
+    <t>MessageQueue</t>
+  </si>
+  <si>
+    <t>线程B</t>
+  </si>
+  <si>
+    <t>线程A</t>
+  </si>
+  <si>
+    <t>Do heavy work</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mesesage</t>
+  </si>
+  <si>
+    <t>Handler  bHandler
+handleMessage()</t>
+  </si>
+  <si>
+    <t>B  &lt;=  A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1682,14 +1709,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1698,7 +1725,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1707,7 +1734,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1715,7 +1742,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1724,7 +1751,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1732,7 +1759,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF7030A0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1740,7 +1767,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1755,7 +1782,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF7030A0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1763,7 +1790,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1772,7 +1799,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1780,7 +1807,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1803,7 +1830,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1821,6 +1848,81 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF40FF"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1849,7 +1951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2041,11 +2143,305 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF40FF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF40FF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF40FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF40FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF40FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF40FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF40FF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF40FF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF40FF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF40FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF40FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF40FF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF40FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2213,18 +2609,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2258,9 +2642,85 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -2323,8 +2783,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF40FF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2355,7 +2816,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="右箭头 3"/>
+        <xdr:cNvPr id="4" name="右箭头 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2409,7 +2876,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="右箭头 4"/>
+        <xdr:cNvPr id="5" name="右箭头 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2463,7 +2936,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="右箭头 5"/>
+        <xdr:cNvPr id="6" name="右箭头 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2517,7 +2996,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="下箭头 6"/>
+        <xdr:cNvPr id="7" name="下箭头 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2571,7 +3056,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="左箭头 9"/>
+        <xdr:cNvPr id="10" name="左箭头 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2625,7 +3116,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="上箭头 10"/>
+        <xdr:cNvPr id="11" name="上箭头 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2684,7 +3181,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="右箭头 1"/>
+        <xdr:cNvPr id="2" name="右箭头 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2738,7 +3241,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右箭头 2"/>
+        <xdr:cNvPr id="3" name="右箭头 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2792,7 +3301,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="左箭头 3"/>
+        <xdr:cNvPr id="4" name="左箭头 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2849,7 +3364,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="左箭头 5"/>
+        <xdr:cNvPr id="6" name="左箭头 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2906,7 +3427,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="左箭头 16"/>
+        <xdr:cNvPr id="17" name="左箭头 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2963,7 +3490,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="左箭头 17"/>
+        <xdr:cNvPr id="18" name="左箭头 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3025,7 +3558,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="右箭头 1"/>
+        <xdr:cNvPr id="2" name="右箭头 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3079,7 +3618,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右箭头 2"/>
+        <xdr:cNvPr id="3" name="右箭头 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3125,6 +3670,253 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Up Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508DACF5-A264-3C4F-B0E3-B7B32231B6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="2209800"/>
+          <a:ext cx="266700" cy="2120900"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16233C29-0D65-C44E-AF25-3851FEEB2591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4330700" y="5029200"/>
+          <a:ext cx="4775200" cy="2108200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="98425">
+          <a:solidFill>
+            <a:srgbClr val="FF40FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557076</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587612</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC27279B-CCE7-4645-ADC5-78934A1A2695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3503476" y="2717800"/>
+          <a:ext cx="703636" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C0D349-01C0-A142-8C0B-78AD38AF6193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6769100" y="4914900"/>
+          <a:ext cx="1295400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bHandler</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -3138,7 +3930,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3185,7 +3983,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3232,7 +4036,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3279,7 +4089,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3326,7 +4142,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3363,7 +4185,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="下箭头 15"/>
+        <xdr:cNvPr id="16" name="下箭头 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3417,7 +4245,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3464,7 +4298,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3502,7 +4342,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="下箭头 21"/>
+        <xdr:cNvPr id="22" name="下箭头 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3556,7 +4402,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3594,7 +4446,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3632,7 +4490,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3670,7 +4534,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3707,7 +4577,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3743,7 +4619,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3779,7 +4661,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3803,7 +4691,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3820,7 +4708,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3867,7 +4761,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3914,7 +4814,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3961,7 +4867,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4008,7 +4920,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4055,7 +4973,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4102,7 +5026,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4149,7 +5079,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4187,7 +5123,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4223,7 +5165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4265,7 +5207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4298,9 +5240,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4333,6 +5292,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4508,7 +5484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G224"/>
   <sheetViews>
@@ -4517,16 +5493,16 @@
       <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="36" style="41" customWidth="1"/>
-    <col min="2" max="2" width="46.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="41"/>
-    <col min="7" max="7" width="8.75" style="41" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="41" customWidth="1"/>
     <col min="8" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="43" customFormat="1">
       <c r="A1" s="44" t="s">
         <v>298</v>
       </c>
@@ -4547,7 +5523,7 @@
       </c>
       <c r="G1" s="44"/>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="41" t="s">
         <v>105</v>
       </c>
@@ -4567,7 +5543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="41" t="s">
         <v>105</v>
       </c>
@@ -4587,7 +5563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="41" t="s">
         <v>105</v>
       </c>
@@ -4607,7 +5583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="41" t="s">
         <v>105</v>
       </c>
@@ -4627,7 +5603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="41" t="s">
         <v>105</v>
       </c>
@@ -4647,7 +5623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="41" t="s">
         <v>105</v>
       </c>
@@ -4667,7 +5643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="41" t="s">
         <v>105</v>
       </c>
@@ -4687,7 +5663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="41" t="s">
         <v>105</v>
       </c>
@@ -4707,7 +5683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="41" t="s">
         <v>105</v>
       </c>
@@ -4727,7 +5703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="41" t="s">
         <v>105</v>
       </c>
@@ -4747,7 +5723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="41" t="s">
         <v>105</v>
       </c>
@@ -4767,7 +5743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="41" t="s">
         <v>105</v>
       </c>
@@ -4787,7 +5763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="41" t="s">
         <v>105</v>
       </c>
@@ -4807,7 +5783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="41" t="s">
         <v>105</v>
       </c>
@@ -4827,7 +5803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="41" t="s">
         <v>105</v>
       </c>
@@ -4847,7 +5823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="41" t="s">
         <v>105</v>
       </c>
@@ -4867,7 +5843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="41" t="s">
         <v>105</v>
       </c>
@@ -4887,7 +5863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="41" t="s">
         <v>105</v>
       </c>
@@ -4907,7 +5883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="41" t="s">
         <v>105</v>
       </c>
@@ -4927,7 +5903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="41" t="s">
         <v>105</v>
       </c>
@@ -4947,7 +5923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="41" t="s">
         <v>105</v>
       </c>
@@ -4967,7 +5943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="41" t="s">
         <v>105</v>
       </c>
@@ -4987,7 +5963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="41" t="s">
         <v>105</v>
       </c>
@@ -5007,7 +5983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="41" t="s">
         <v>105</v>
       </c>
@@ -5027,7 +6003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" s="41" t="s">
         <v>105</v>
       </c>
@@ -5047,7 +6023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="41" t="s">
         <v>105</v>
       </c>
@@ -5067,7 +6043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="41" t="s">
         <v>105</v>
       </c>
@@ -5087,7 +6063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="41" t="s">
         <v>105</v>
       </c>
@@ -5107,7 +6083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="41" t="s">
         <v>105</v>
       </c>
@@ -5127,7 +6103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="41" t="s">
         <v>105</v>
       </c>
@@ -5147,7 +6123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" s="41" t="s">
         <v>105</v>
       </c>
@@ -5167,7 +6143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" s="41" t="s">
         <v>105</v>
       </c>
@@ -5187,7 +6163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="41" t="s">
         <v>105</v>
       </c>
@@ -5207,7 +6183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" s="41" t="s">
         <v>104</v>
       </c>
@@ -5225,7 +6201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" s="41" t="s">
         <v>104</v>
       </c>
@@ -5243,7 +6219,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" s="41" t="s">
         <v>104</v>
       </c>
@@ -5261,7 +6237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="41" t="s">
         <v>104</v>
       </c>
@@ -5279,7 +6255,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="41" t="s">
         <v>104</v>
       </c>
@@ -5297,7 +6273,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="41" t="s">
         <v>104</v>
       </c>
@@ -5315,7 +6291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="41" t="s">
         <v>104</v>
       </c>
@@ -5333,7 +6309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" s="41" t="s">
         <v>104</v>
       </c>
@@ -5351,7 +6327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="41" t="s">
         <v>104</v>
       </c>
@@ -5369,7 +6345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" s="41" t="s">
         <v>104</v>
       </c>
@@ -5387,7 +6363,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="41" t="s">
         <v>104</v>
       </c>
@@ -5405,7 +6381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="41" t="s">
         <v>104</v>
       </c>
@@ -5423,7 +6399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="41" t="s">
         <v>104</v>
       </c>
@@ -5441,7 +6417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="41" t="s">
         <v>104</v>
       </c>
@@ -5459,7 +6435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="41" t="s">
         <v>104</v>
       </c>
@@ -5477,7 +6453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="41" t="s">
         <v>104</v>
       </c>
@@ -5495,7 +6471,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="41" t="s">
         <v>104</v>
       </c>
@@ -5513,7 +6489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" s="41" t="s">
         <v>104</v>
       </c>
@@ -5531,7 +6507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" s="41" t="s">
         <v>104</v>
       </c>
@@ -5549,7 +6525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="41" t="s">
         <v>104</v>
       </c>
@@ -5567,7 +6543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" s="41" t="s">
         <v>104</v>
       </c>
@@ -5582,7 +6558,7 @@
       </c>
       <c r="E55" s="42"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="41" t="s">
         <v>104</v>
       </c>
@@ -5600,7 +6576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="41" t="s">
         <v>104</v>
       </c>
@@ -5618,7 +6594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="41" t="s">
         <v>104</v>
       </c>
@@ -5636,7 +6612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="41" t="s">
         <v>104</v>
       </c>
@@ -5654,7 +6630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="41" t="s">
         <v>104</v>
       </c>
@@ -5672,7 +6648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" s="41" t="s">
         <v>104</v>
       </c>
@@ -5690,7 +6666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="41" t="s">
         <v>104</v>
       </c>
@@ -5708,7 +6684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="41" t="s">
         <v>104</v>
       </c>
@@ -5726,7 +6702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="41" t="s">
         <v>104</v>
       </c>
@@ -5744,7 +6720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="41" t="s">
         <v>104</v>
       </c>
@@ -5762,7 +6738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="41" t="s">
         <v>104</v>
       </c>
@@ -5780,7 +6756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" s="41" t="s">
         <v>104</v>
       </c>
@@ -5798,7 +6774,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" s="41" t="s">
         <v>104</v>
       </c>
@@ -5816,7 +6792,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="41" t="s">
         <v>104</v>
       </c>
@@ -5834,7 +6810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="41" t="s">
         <v>104</v>
       </c>
@@ -5852,7 +6828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="41" t="s">
         <v>104</v>
       </c>
@@ -5870,7 +6846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="41" t="s">
         <v>104</v>
       </c>
@@ -5888,7 +6864,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="41" t="s">
         <v>104</v>
       </c>
@@ -5906,7 +6882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="41" t="s">
         <v>104</v>
       </c>
@@ -5924,7 +6900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="41" t="s">
         <v>104</v>
       </c>
@@ -5942,7 +6918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="41" t="s">
         <v>104</v>
       </c>
@@ -5960,7 +6936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="41" t="s">
         <v>104</v>
       </c>
@@ -5978,7 +6954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="41" t="s">
         <v>104</v>
       </c>
@@ -5996,7 +6972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="41" t="s">
         <v>104</v>
       </c>
@@ -6014,7 +6990,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="41" t="s">
         <v>104</v>
       </c>
@@ -6032,7 +7008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="41" t="s">
         <v>104</v>
       </c>
@@ -6050,7 +7026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="41" t="s">
         <v>104</v>
       </c>
@@ -6068,7 +7044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="41" t="s">
         <v>104</v>
       </c>
@@ -6086,7 +7062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="41" t="s">
         <v>104</v>
       </c>
@@ -6104,7 +7080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="41" t="s">
         <v>104</v>
       </c>
@@ -6122,7 +7098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="41" t="s">
         <v>104</v>
       </c>
@@ -6140,7 +7116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="41" t="s">
         <v>104</v>
       </c>
@@ -6158,7 +7134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="41" t="s">
         <v>104</v>
       </c>
@@ -6176,7 +7152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="41" t="s">
         <v>104</v>
       </c>
@@ -6194,7 +7170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="41" t="s">
         <v>104</v>
       </c>
@@ -6212,7 +7188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" s="41" t="s">
         <v>162</v>
       </c>
@@ -6227,7 +7203,7 @@
       </c>
       <c r="E91" s="42"/>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" s="41" t="s">
         <v>162</v>
       </c>
@@ -6242,7 +7218,7 @@
       </c>
       <c r="E92" s="42"/>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" s="41" t="s">
         <v>162</v>
       </c>
@@ -6257,7 +7233,7 @@
       </c>
       <c r="E93" s="42"/>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" s="41" t="s">
         <v>162</v>
       </c>
@@ -6272,7 +7248,7 @@
       </c>
       <c r="E94" s="42"/>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" s="41" t="s">
         <v>162</v>
       </c>
@@ -6287,7 +7263,7 @@
       </c>
       <c r="E95" s="42"/>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" s="41" t="s">
         <v>162</v>
       </c>
@@ -6302,7 +7278,7 @@
       </c>
       <c r="E96" s="42"/>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" s="41" t="s">
         <v>162</v>
       </c>
@@ -6317,7 +7293,7 @@
       </c>
       <c r="E97" s="42"/>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" s="41" t="s">
         <v>162</v>
       </c>
@@ -6332,7 +7308,7 @@
       </c>
       <c r="E98" s="42"/>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" s="41" t="s">
         <v>162</v>
       </c>
@@ -6347,7 +7323,7 @@
       </c>
       <c r="E99" s="42"/>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" s="41" t="s">
         <v>162</v>
       </c>
@@ -6362,7 +7338,7 @@
       </c>
       <c r="E100" s="42"/>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" s="41" t="s">
         <v>162</v>
       </c>
@@ -6377,7 +7353,7 @@
       </c>
       <c r="E101" s="42"/>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" s="41" t="s">
         <v>162</v>
       </c>
@@ -6392,7 +7368,7 @@
       </c>
       <c r="E102" s="42"/>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" s="41" t="s">
         <v>162</v>
       </c>
@@ -6407,7 +7383,7 @@
       </c>
       <c r="E103" s="42"/>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" s="41" t="s">
         <v>162</v>
       </c>
@@ -6422,7 +7398,7 @@
       </c>
       <c r="E104" s="42"/>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" s="41" t="s">
         <v>162</v>
       </c>
@@ -6437,7 +7413,7 @@
       </c>
       <c r="E105" s="42"/>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" s="41" t="s">
         <v>162</v>
       </c>
@@ -6452,7 +7428,7 @@
       </c>
       <c r="E106" s="42"/>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" s="41" t="s">
         <v>162</v>
       </c>
@@ -6467,7 +7443,7 @@
       </c>
       <c r="E107" s="42"/>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" s="41" t="s">
         <v>162</v>
       </c>
@@ -6482,7 +7458,7 @@
       </c>
       <c r="E108" s="42"/>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" s="41" t="s">
         <v>162</v>
       </c>
@@ -6497,7 +7473,7 @@
       </c>
       <c r="E109" s="42"/>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" s="41" t="s">
         <v>162</v>
       </c>
@@ -6512,7 +7488,7 @@
       </c>
       <c r="E110" s="42"/>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" s="41" t="s">
         <v>162</v>
       </c>
@@ -6527,7 +7503,7 @@
       </c>
       <c r="E111" s="42"/>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" s="41" t="s">
         <v>162</v>
       </c>
@@ -6542,7 +7518,7 @@
       </c>
       <c r="E112" s="42"/>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" s="41" t="s">
         <v>162</v>
       </c>
@@ -6557,7 +7533,7 @@
       </c>
       <c r="E113" s="42"/>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" s="41" t="s">
         <v>162</v>
       </c>
@@ -6572,7 +7548,7 @@
       </c>
       <c r="E114" s="42"/>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" s="41" t="s">
         <v>162</v>
       </c>
@@ -6587,7 +7563,7 @@
       </c>
       <c r="E115" s="42"/>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" s="41" t="s">
         <v>162</v>
       </c>
@@ -6602,7 +7578,7 @@
       </c>
       <c r="E116" s="42"/>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" s="41" t="s">
         <v>162</v>
       </c>
@@ -6617,7 +7593,7 @@
       </c>
       <c r="E117" s="42"/>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" s="41" t="s">
         <v>162</v>
       </c>
@@ -6632,7 +7608,7 @@
       </c>
       <c r="E118" s="42"/>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" s="41" t="s">
         <v>162</v>
       </c>
@@ -6647,7 +7623,7 @@
       </c>
       <c r="E119" s="42"/>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" s="41" t="s">
         <v>162</v>
       </c>
@@ -6662,7 +7638,7 @@
       </c>
       <c r="E120" s="42"/>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" s="41" t="s">
         <v>162</v>
       </c>
@@ -6677,7 +7653,7 @@
       </c>
       <c r="E121" s="42"/>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" s="41" t="s">
         <v>162</v>
       </c>
@@ -6692,7 +7668,7 @@
       </c>
       <c r="E122" s="42"/>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" s="41" t="s">
         <v>162</v>
       </c>
@@ -6707,7 +7683,7 @@
       </c>
       <c r="E123" s="42"/>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" s="41" t="s">
         <v>162</v>
       </c>
@@ -6722,7 +7698,7 @@
       </c>
       <c r="E124" s="42"/>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" s="41" t="s">
         <v>162</v>
       </c>
@@ -6737,7 +7713,7 @@
       </c>
       <c r="E125" s="42"/>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" s="41" t="s">
         <v>162</v>
       </c>
@@ -6752,7 +7728,7 @@
       </c>
       <c r="E126" s="42"/>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" s="41" t="s">
         <v>162</v>
       </c>
@@ -6767,7 +7743,7 @@
       </c>
       <c r="E127" s="42"/>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" s="41" t="s">
         <v>162</v>
       </c>
@@ -6782,7 +7758,7 @@
       </c>
       <c r="E128" s="42"/>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" s="41" t="s">
         <v>162</v>
       </c>
@@ -6797,7 +7773,7 @@
       </c>
       <c r="E129" s="42"/>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" s="41" t="s">
         <v>162</v>
       </c>
@@ -6812,7 +7788,7 @@
       </c>
       <c r="E130" s="42"/>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" s="41" t="s">
         <v>162</v>
       </c>
@@ -6827,7 +7803,7 @@
       </c>
       <c r="E131" s="42"/>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" s="41" t="s">
         <v>162</v>
       </c>
@@ -6842,7 +7818,7 @@
       </c>
       <c r="E132" s="42"/>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" s="41" t="s">
         <v>162</v>
       </c>
@@ -6857,7 +7833,7 @@
       </c>
       <c r="E133" s="42"/>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" s="41" t="s">
         <v>162</v>
       </c>
@@ -6872,7 +7848,7 @@
       </c>
       <c r="E134" s="42"/>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" s="41" t="s">
         <v>162</v>
       </c>
@@ -6887,7 +7863,7 @@
       </c>
       <c r="E135" s="42"/>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" s="41" t="s">
         <v>162</v>
       </c>
@@ -6902,7 +7878,7 @@
       </c>
       <c r="E136" s="42"/>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" s="41" t="s">
         <v>162</v>
       </c>
@@ -6917,7 +7893,7 @@
       </c>
       <c r="E137" s="42"/>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" s="41" t="s">
         <v>162</v>
       </c>
@@ -6932,7 +7908,7 @@
       </c>
       <c r="E138" s="42"/>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" s="41" t="s">
         <v>211</v>
       </c>
@@ -6947,7 +7923,7 @@
       </c>
       <c r="E139" s="42"/>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" s="41" t="s">
         <v>211</v>
       </c>
@@ -6962,7 +7938,7 @@
       </c>
       <c r="E140" s="42"/>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" s="41" t="s">
         <v>211</v>
       </c>
@@ -6977,7 +7953,7 @@
       </c>
       <c r="E141" s="42"/>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142" s="41" t="s">
         <v>211</v>
       </c>
@@ -6992,7 +7968,7 @@
       </c>
       <c r="E142" s="42"/>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" s="41" t="s">
         <v>211</v>
       </c>
@@ -7007,7 +7983,7 @@
       </c>
       <c r="E143" s="42"/>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144" s="41" t="s">
         <v>211</v>
       </c>
@@ -7022,7 +7998,7 @@
       </c>
       <c r="E144" s="42"/>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" s="41" t="s">
         <v>211</v>
       </c>
@@ -7037,7 +8013,7 @@
       </c>
       <c r="E145" s="42"/>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" s="41" t="s">
         <v>211</v>
       </c>
@@ -7052,7 +8028,7 @@
       </c>
       <c r="E146" s="42"/>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" s="41" t="s">
         <v>211</v>
       </c>
@@ -7067,7 +8043,7 @@
       </c>
       <c r="E147" s="42"/>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" s="41" t="s">
         <v>211</v>
       </c>
@@ -7082,7 +8058,7 @@
       </c>
       <c r="E148" s="42"/>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149" s="41" t="s">
         <v>211</v>
       </c>
@@ -7097,7 +8073,7 @@
       </c>
       <c r="E149" s="42"/>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" hidden="1">
       <c r="A150" s="41" t="s">
         <v>211</v>
       </c>
@@ -7112,7 +8088,7 @@
       </c>
       <c r="E150" s="42"/>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151" s="41" t="s">
         <v>211</v>
       </c>
@@ -7127,7 +8103,7 @@
       </c>
       <c r="E151" s="42"/>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152" s="41" t="s">
         <v>211</v>
       </c>
@@ -7142,7 +8118,7 @@
       </c>
       <c r="E152" s="42"/>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153" s="41" t="s">
         <v>211</v>
       </c>
@@ -7157,7 +8133,7 @@
       </c>
       <c r="E153" s="42"/>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" s="41" t="s">
         <v>211</v>
       </c>
@@ -7172,7 +8148,7 @@
       </c>
       <c r="E154" s="42"/>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155" s="41" t="s">
         <v>211</v>
       </c>
@@ -7187,7 +8163,7 @@
       </c>
       <c r="E155" s="42"/>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156" s="41" t="s">
         <v>211</v>
       </c>
@@ -7202,7 +8178,7 @@
       </c>
       <c r="E156" s="42"/>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157" s="41" t="s">
         <v>211</v>
       </c>
@@ -7217,7 +8193,7 @@
       </c>
       <c r="E157" s="42"/>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" hidden="1">
       <c r="A158" s="41" t="s">
         <v>211</v>
       </c>
@@ -7232,7 +8208,7 @@
       </c>
       <c r="E158" s="42"/>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159" s="41" t="s">
         <v>211</v>
       </c>
@@ -7247,7 +8223,7 @@
       </c>
       <c r="E159" s="42"/>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160" s="41" t="s">
         <v>211</v>
       </c>
@@ -7262,7 +8238,7 @@
       </c>
       <c r="E160" s="42"/>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" s="41" t="s">
         <v>211</v>
       </c>
@@ -7277,7 +8253,7 @@
       </c>
       <c r="E161" s="42"/>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" s="41" t="s">
         <v>211</v>
       </c>
@@ -7292,7 +8268,7 @@
       </c>
       <c r="E162" s="42"/>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" s="41" t="s">
         <v>211</v>
       </c>
@@ -7307,7 +8283,7 @@
       </c>
       <c r="E163" s="42"/>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" s="41" t="s">
         <v>211</v>
       </c>
@@ -7322,7 +8298,7 @@
       </c>
       <c r="E164" s="42"/>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" s="41" t="s">
         <v>211</v>
       </c>
@@ -7337,7 +8313,7 @@
       </c>
       <c r="E165" s="42"/>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" s="41" t="s">
         <v>211</v>
       </c>
@@ -7352,7 +8328,7 @@
       </c>
       <c r="E166" s="42"/>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" s="41" t="s">
         <v>211</v>
       </c>
@@ -7367,7 +8343,7 @@
       </c>
       <c r="E167" s="42"/>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" s="41" t="s">
         <v>211</v>
       </c>
@@ -7382,7 +8358,7 @@
       </c>
       <c r="E168" s="42"/>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" s="41" t="s">
         <v>211</v>
       </c>
@@ -7397,7 +8373,7 @@
       </c>
       <c r="E169" s="42"/>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" s="41" t="s">
         <v>211</v>
       </c>
@@ -7412,7 +8388,7 @@
       </c>
       <c r="E170" s="42"/>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" s="41" t="s">
         <v>211</v>
       </c>
@@ -7427,7 +8403,7 @@
       </c>
       <c r="E171" s="42"/>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" s="41" t="s">
         <v>211</v>
       </c>
@@ -7442,7 +8418,7 @@
       </c>
       <c r="E172" s="42"/>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" s="41" t="s">
         <v>211</v>
       </c>
@@ -7457,7 +8433,7 @@
       </c>
       <c r="E173" s="42"/>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" s="41" t="s">
         <v>211</v>
       </c>
@@ -7472,7 +8448,7 @@
       </c>
       <c r="E174" s="42"/>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175" s="41" t="s">
         <v>211</v>
       </c>
@@ -7487,7 +8463,7 @@
       </c>
       <c r="E175" s="42"/>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176" s="41" t="s">
         <v>211</v>
       </c>
@@ -7502,7 +8478,7 @@
       </c>
       <c r="E176" s="42"/>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177" s="41" t="s">
         <v>211</v>
       </c>
@@ -7517,7 +8493,7 @@
       </c>
       <c r="E177" s="42"/>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178" s="41" t="s">
         <v>211</v>
       </c>
@@ -7532,7 +8508,7 @@
       </c>
       <c r="E178" s="42"/>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179" s="41" t="s">
         <v>211</v>
       </c>
@@ -7547,7 +8523,7 @@
       </c>
       <c r="E179" s="42"/>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180" s="41" t="s">
         <v>211</v>
       </c>
@@ -7562,7 +8538,7 @@
       </c>
       <c r="E180" s="42"/>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181" s="41" t="s">
         <v>211</v>
       </c>
@@ -7577,7 +8553,7 @@
       </c>
       <c r="E181" s="42"/>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182" s="41" t="s">
         <v>211</v>
       </c>
@@ -7592,7 +8568,7 @@
       </c>
       <c r="E182" s="42"/>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183" s="41" t="s">
         <v>211</v>
       </c>
@@ -7607,7 +8583,7 @@
       </c>
       <c r="E183" s="42"/>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184" s="41" t="s">
         <v>211</v>
       </c>
@@ -7622,7 +8598,7 @@
       </c>
       <c r="E184" s="42"/>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185" s="41" t="s">
         <v>211</v>
       </c>
@@ -7637,7 +8613,7 @@
       </c>
       <c r="E185" s="42"/>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186" s="41" t="s">
         <v>211</v>
       </c>
@@ -7652,7 +8628,7 @@
       </c>
       <c r="E186" s="42"/>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187" s="41" t="s">
         <v>211</v>
       </c>
@@ -7667,7 +8643,7 @@
       </c>
       <c r="E187" s="42"/>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188" s="41" t="s">
         <v>211</v>
       </c>
@@ -7682,7 +8658,7 @@
       </c>
       <c r="E188" s="42"/>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" s="41" t="s">
         <v>211</v>
       </c>
@@ -7697,7 +8673,7 @@
       </c>
       <c r="E189" s="42"/>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" s="41" t="s">
         <v>211</v>
       </c>
@@ -7712,7 +8688,7 @@
       </c>
       <c r="E190" s="42"/>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" s="41" t="s">
         <v>211</v>
       </c>
@@ -7727,7 +8703,7 @@
       </c>
       <c r="E191" s="42"/>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192" s="41" t="s">
         <v>211</v>
       </c>
@@ -7742,7 +8718,7 @@
       </c>
       <c r="E192" s="42"/>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" s="41" t="s">
         <v>211</v>
       </c>
@@ -7757,7 +8733,7 @@
       </c>
       <c r="E193" s="42"/>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194" s="41" t="s">
         <v>211</v>
       </c>
@@ -7772,7 +8748,7 @@
       </c>
       <c r="E194" s="42"/>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" s="41" t="s">
         <v>268</v>
       </c>
@@ -7787,7 +8763,7 @@
       </c>
       <c r="E195" s="42"/>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" s="41" t="s">
         <v>268</v>
       </c>
@@ -7802,7 +8778,7 @@
       </c>
       <c r="E196" s="42"/>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" s="41" t="s">
         <v>268</v>
       </c>
@@ -7817,7 +8793,7 @@
       </c>
       <c r="E197" s="42"/>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" s="41" t="s">
         <v>268</v>
       </c>
@@ -7832,7 +8808,7 @@
       </c>
       <c r="E198" s="42"/>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" s="41" t="s">
         <v>268</v>
       </c>
@@ -7847,7 +8823,7 @@
       </c>
       <c r="E199" s="42"/>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200" s="41" t="s">
         <v>268</v>
       </c>
@@ -7862,7 +8838,7 @@
       </c>
       <c r="E200" s="42"/>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201" s="41" t="s">
         <v>268</v>
       </c>
@@ -7877,7 +8853,7 @@
       </c>
       <c r="E201" s="42"/>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202" s="41" t="s">
         <v>268</v>
       </c>
@@ -7892,7 +8868,7 @@
       </c>
       <c r="E202" s="42"/>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" s="41" t="s">
         <v>268</v>
       </c>
@@ -7907,7 +8883,7 @@
       </c>
       <c r="E203" s="42"/>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204" s="41" t="s">
         <v>268</v>
       </c>
@@ -7922,7 +8898,7 @@
       </c>
       <c r="E204" s="42"/>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205" s="41" t="s">
         <v>268</v>
       </c>
@@ -7937,7 +8913,7 @@
       </c>
       <c r="E205" s="42"/>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206" s="41" t="s">
         <v>268</v>
       </c>
@@ -7952,7 +8928,7 @@
       </c>
       <c r="E206" s="42"/>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207" s="41" t="s">
         <v>268</v>
       </c>
@@ -7967,7 +8943,7 @@
       </c>
       <c r="E207" s="42"/>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208" s="41" t="s">
         <v>268</v>
       </c>
@@ -7982,7 +8958,7 @@
       </c>
       <c r="E208" s="42"/>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="41" t="s">
         <v>268</v>
       </c>
@@ -7997,7 +8973,7 @@
       </c>
       <c r="E209" s="42"/>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="41" t="s">
         <v>268</v>
       </c>
@@ -8012,7 +8988,7 @@
       </c>
       <c r="E210" s="42"/>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211" s="41" t="s">
         <v>268</v>
       </c>
@@ -8027,7 +9003,7 @@
       </c>
       <c r="E211" s="42"/>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="41" t="s">
         <v>268</v>
       </c>
@@ -8042,7 +9018,7 @@
       </c>
       <c r="E212" s="42"/>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7" hidden="1">
       <c r="A213" s="41" t="s">
         <v>268</v>
       </c>
@@ -8057,7 +9033,7 @@
       </c>
       <c r="E213" s="42"/>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214" s="41" t="s">
         <v>268</v>
       </c>
@@ -8072,7 +9048,7 @@
       </c>
       <c r="E214" s="42"/>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="41" t="s">
         <v>268</v>
       </c>
@@ -8087,7 +9063,7 @@
       </c>
       <c r="E215" s="42"/>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="41" t="s">
         <v>268</v>
       </c>
@@ -8102,7 +9078,7 @@
       </c>
       <c r="E216" s="42"/>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="41" t="s">
         <v>268</v>
       </c>
@@ -8117,7 +9093,7 @@
       </c>
       <c r="E217" s="42"/>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218" s="41" t="s">
         <v>268</v>
       </c>
@@ -8132,7 +9108,7 @@
       </c>
       <c r="E218" s="42"/>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="41" t="s">
         <v>268</v>
       </c>
@@ -8147,7 +9123,7 @@
       </c>
       <c r="E219" s="42"/>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="41" t="s">
         <v>268</v>
       </c>
@@ -8162,7 +9138,7 @@
       </c>
       <c r="E220" s="42"/>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7" hidden="1">
       <c r="A221" s="41" t="s">
         <v>268</v>
       </c>
@@ -8177,7 +9153,7 @@
       </c>
       <c r="E221" s="42"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7">
       <c r="A222" s="41" t="s">
         <v>296</v>
       </c>
@@ -8195,12 +9171,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7">
       <c r="C223" s="42"/>
       <c r="D223" s="42"/>
       <c r="E223" s="42"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7">
       <c r="C224" s="42"/>
       <c r="D224" s="42"/>
       <c r="E224" s="42"/>
@@ -8209,7 +9185,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F222">
+  <autoFilter ref="A1:F222" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
         <filter val="正在"/>
@@ -8250,7 +9226,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F222" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"正在,结束"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8259,17 +9235,200 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A3:E21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="9" style="87"/>
+    <col min="2" max="2" width="13" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="87" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" s="83" customFormat="1">
+      <c r="B3" s="86" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="83" customFormat="1" ht="13">
+      <c r="B4" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="83" customFormat="1" ht="13">
+      <c r="B5" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="83" customFormat="1">
+      <c r="B6" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="83" customFormat="1" ht="13">
+      <c r="B7" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+    </row>
+    <row r="9" spans="1:5" ht="13">
+      <c r="A9" s="88"/>
+      <c r="B9" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+    </row>
+    <row r="10" spans="1:5" ht="13">
+      <c r="A10" s="88"/>
+      <c r="B10" s="89" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="88"/>
+      <c r="B11" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9">
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
       <c r="F1" s="71"/>
@@ -8277,7 +9436,7 @@
       <c r="H1" s="71"/>
       <c r="I1" s="71"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="D2" s="71" t="s">
         <v>352</v>
       </c>
@@ -8287,7 +9446,7 @@
       <c r="H2" s="71"/>
       <c r="I2" s="71"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="D3" s="71" t="s">
         <v>353</v>
       </c>
@@ -8297,7 +9456,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9">
       <c r="D4" s="71" t="s">
         <v>354</v>
       </c>
@@ -8307,7 +9466,7 @@
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="C6" s="81" t="s">
         <v>346</v>
       </c>
@@ -8318,7 +9477,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
         <v>340</v>
       </c>
@@ -8332,12 +9491,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9">
       <c r="H9" s="80" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="E14" s="80" t="s">
         <v>356</v>
       </c>
@@ -8345,18 +9504,18 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="E15" s="80" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:6">
       <c r="E19" s="80" t="s">
         <v>351</v>
       </c>
       <c r="F19" s="80"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:6">
       <c r="D20" t="s">
         <v>343</v>
       </c>
@@ -8374,29 +9533,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="68.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="68.6640625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:17">
       <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="13" thickBot="1">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8407,7 +9566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17">
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -8418,7 +9577,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17">
       <c r="C4" s="6"/>
       <c r="E4" s="7"/>
       <c r="H4" s="6"/>
@@ -8426,7 +9585,7 @@
       <c r="M4" s="6"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17">
       <c r="C5" s="6"/>
       <c r="E5" s="7"/>
       <c r="H5" s="6"/>
@@ -8434,7 +9593,7 @@
       <c r="M5" s="6"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17">
       <c r="C6" s="6"/>
       <c r="E6" s="7"/>
       <c r="H6" s="6"/>
@@ -8442,7 +9601,7 @@
       <c r="M6" s="6"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17">
       <c r="C7" s="6"/>
       <c r="E7" s="7"/>
       <c r="H7" s="6"/>
@@ -8450,7 +9609,7 @@
       <c r="M7" s="6"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="13" thickBot="1">
       <c r="C8" s="6"/>
       <c r="E8" s="7"/>
       <c r="H8" s="6"/>
@@ -8458,7 +9617,7 @@
       <c r="M8" s="6"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="25" thickBot="1">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -8483,7 +9642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17">
       <c r="C10" s="6"/>
       <c r="E10" s="7"/>
       <c r="H10" s="6"/>
@@ -8491,7 +9650,7 @@
       <c r="M10" s="6"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17">
       <c r="C11" s="6"/>
       <c r="E11" s="7"/>
       <c r="H11" s="6"/>
@@ -8499,7 +9658,7 @@
       <c r="M11" s="6"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17">
       <c r="C12" s="6"/>
       <c r="E12" s="7"/>
       <c r="H12" s="6"/>
@@ -8507,7 +9666,7 @@
       <c r="M12" s="6"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17">
       <c r="C13" s="6"/>
       <c r="E13" s="7"/>
       <c r="H13" s="6"/>
@@ -8515,7 +9674,7 @@
       <c r="M13" s="6"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17">
       <c r="C14" s="6"/>
       <c r="E14" s="7"/>
       <c r="H14" s="6"/>
@@ -8523,7 +9682,7 @@
       <c r="M14" s="6"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17">
       <c r="C15" s="6"/>
       <c r="E15" s="7"/>
       <c r="H15" s="6"/>
@@ -8531,7 +9690,7 @@
       <c r="M15" s="6"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17">
       <c r="C16" s="6"/>
       <c r="E16" s="7"/>
       <c r="H16" s="6"/>
@@ -8539,7 +9698,7 @@
       <c r="M16" s="6"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" ht="13" thickBot="1">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -8550,7 +9709,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="24" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" ht="13" thickBot="1">
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
@@ -8561,7 +9720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:17">
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -8572,7 +9731,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:17">
       <c r="C26" s="6"/>
       <c r="E26" s="7"/>
       <c r="H26" s="6"/>
@@ -8580,7 +9739,7 @@
       <c r="M26" s="6"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17">
       <c r="C27" s="6"/>
       <c r="E27" s="7"/>
       <c r="H27" s="6"/>
@@ -8588,7 +9747,7 @@
       <c r="M27" s="6"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17">
       <c r="C28" s="6"/>
       <c r="E28" s="7"/>
       <c r="H28" s="6"/>
@@ -8596,7 +9755,7 @@
       <c r="M28" s="6"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17">
       <c r="C29" s="6"/>
       <c r="E29" s="7"/>
       <c r="H29" s="6"/>
@@ -8604,7 +9763,7 @@
       <c r="M29" s="6"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:17">
       <c r="C30" s="6"/>
       <c r="E30" s="7"/>
       <c r="H30" s="6"/>
@@ -8612,7 +9771,7 @@
       <c r="M30" s="6"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="2:17" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:17" ht="36">
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
@@ -8629,7 +9788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:17">
       <c r="C32" s="6"/>
       <c r="E32" s="7"/>
       <c r="H32" s="6"/>
@@ -8637,7 +9796,7 @@
       <c r="M32" s="6"/>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:15">
       <c r="C33" s="6"/>
       <c r="E33" s="7"/>
       <c r="H33" s="6"/>
@@ -8645,7 +9804,7 @@
       <c r="M33" s="6"/>
       <c r="O33" s="7"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:15">
       <c r="C34" s="6"/>
       <c r="E34" s="7"/>
       <c r="H34" s="6"/>
@@ -8653,7 +9812,7 @@
       <c r="M34" s="6"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:15">
       <c r="C35" s="6"/>
       <c r="E35" s="7"/>
       <c r="H35" s="6"/>
@@ -8661,7 +9820,7 @@
       <c r="M35" s="6"/>
       <c r="O35" s="7"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:15">
       <c r="C36" s="6"/>
       <c r="E36" s="7"/>
       <c r="H36" s="6"/>
@@ -8669,7 +9828,7 @@
       <c r="M36" s="6"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:15">
       <c r="C37" s="6"/>
       <c r="E37" s="7"/>
       <c r="H37" s="6"/>
@@ -8677,7 +9836,7 @@
       <c r="M37" s="6"/>
       <c r="O37" s="7"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:15">
       <c r="C38" s="6"/>
       <c r="E38" s="7"/>
       <c r="H38" s="6"/>
@@ -8685,7 +9844,7 @@
       <c r="M38" s="6"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="3:15" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:15" ht="13" thickBot="1">
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
@@ -8705,25 +9864,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="13.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7">
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
@@ -8743,7 +9902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7">
       <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
@@ -8759,8 +9918,8 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="83" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="125" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -8779,8 +9938,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="83"/>
+    <row r="6" spans="2:7">
+      <c r="B6" s="125"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -8795,8 +9954,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="83"/>
+    <row r="7" spans="2:7">
+      <c r="B7" s="125"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -8813,8 +9972,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="83"/>
+    <row r="8" spans="2:7">
+      <c r="B8" s="125"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -8831,8 +9990,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="83"/>
+    <row r="9" spans="2:7">
+      <c r="B9" s="125"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -8849,8 +10008,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="83"/>
+    <row r="10" spans="2:7" ht="24">
+      <c r="B10" s="125"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -8867,8 +10026,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="84" t="s">
+    <row r="11" spans="2:7" ht="36">
+      <c r="B11" s="126" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -8887,8 +10046,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="85"/>
+    <row r="12" spans="2:7">
+      <c r="B12" s="127"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -8901,8 +10060,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="86"/>
+    <row r="13" spans="2:7">
+      <c r="B13" s="128"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -8929,25 +10088,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9" style="30"/>
     <col min="8" max="8" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14">
       <c r="H1" s="40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" ht="16" thickBot="1">
       <c r="C3" s="30" t="s">
         <v>51</v>
       </c>
@@ -8958,7 +10117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14">
       <c r="B4" s="19"/>
       <c r="C4" s="31"/>
       <c r="D4" s="21"/>
@@ -8971,7 +10130,7 @@
       <c r="M4" s="20"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14">
       <c r="B5" s="22"/>
       <c r="C5" s="32" t="s">
         <v>50</v>
@@ -8990,7 +10149,7 @@
       </c>
       <c r="N5" s="24"/>
     </row>
-    <row r="6" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" ht="16" thickBot="1">
       <c r="B6" s="25"/>
       <c r="C6" s="33"/>
       <c r="D6" s="27"/>
@@ -9003,7 +10162,7 @@
       <c r="M6" s="26"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="B10" s="35"/>
       <c r="C10" s="37" t="s">
         <v>59</v>
@@ -9015,68 +10174,68 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="H11" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14">
       <c r="H12" s="34"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="H13" s="38" t="s">
         <v>63</v>
       </c>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="H14" s="38" t="s">
         <v>60</v>
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="H15" s="39" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="H16" s="38" t="s">
         <v>62</v>
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="8:9">
       <c r="H17" s="34"/>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="8:9">
       <c r="H18" s="34"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="8:9">
       <c r="H19" s="34"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="8:9">
       <c r="H20" s="34"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="8:9">
       <c r="H21" s="34"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="8:9">
       <c r="H22" s="34"/>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="8:9">
       <c r="H23" s="34"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="8:9">
       <c r="H24" s="34"/>
       <c r="I24" s="36"/>
     </row>
@@ -9089,14 +10248,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23:P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="4" width="9" style="45"/>
     <col min="5" max="5" width="9" style="46"/>
@@ -9107,7 +10266,7 @@
     <col min="14" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="13" thickBot="1">
       <c r="C2" s="45" t="s">
         <v>301</v>
       </c>
@@ -9122,7 +10281,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17">
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
       <c r="D3" s="49"/>
@@ -9137,7 +10296,7 @@
       <c r="O3" s="48"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17">
       <c r="B4" s="51" t="s">
         <v>305</v>
       </c>
@@ -9162,7 +10321,7 @@
       </c>
       <c r="P4" s="56"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="13">
       <c r="B5" s="51" t="s">
         <v>303</v>
       </c>
@@ -9195,7 +10354,7 @@
       </c>
       <c r="P5" s="56"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="13">
       <c r="B6" s="51" t="s">
         <v>302</v>
       </c>
@@ -9228,7 +10387,7 @@
       </c>
       <c r="P6" s="56"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17">
       <c r="B7" s="51" t="s">
         <v>304</v>
       </c>
@@ -9253,7 +10412,7 @@
       </c>
       <c r="P7" s="56"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17">
       <c r="B8" s="51" t="s">
         <v>306</v>
       </c>
@@ -9270,7 +10429,7 @@
       <c r="O8" s="60"/>
       <c r="P8" s="56"/>
     </row>
-    <row r="9" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="13" thickBot="1">
       <c r="B9" s="61"/>
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
@@ -9285,7 +10444,7 @@
       <c r="O9" s="62"/>
       <c r="P9" s="63"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17">
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
       <c r="E10" s="50"/>
@@ -9294,7 +10453,7 @@
       <c r="H10" s="60"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17">
       <c r="B11" s="59" t="s">
         <v>308</v>
       </c>
@@ -9323,7 +10482,7 @@
       <c r="P11" s="65"/>
       <c r="Q11" s="65"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17">
       <c r="B12" s="59" t="s">
         <v>309</v>
       </c>
@@ -9335,7 +10494,7 @@
       <c r="H12" s="60"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17">
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="50"/>
@@ -9344,7 +10503,7 @@
       <c r="H13" s="60"/>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17">
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
       <c r="E14" s="50"/>
@@ -9353,7 +10512,7 @@
       <c r="H14" s="60"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17">
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="50"/>
@@ -9362,7 +10521,7 @@
       <c r="H15" s="60"/>
       <c r="I15" s="50"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17">
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
       <c r="E16" s="50"/>
@@ -9371,7 +10530,7 @@
       <c r="H16" s="60"/>
       <c r="I16" s="50"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:9">
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
       <c r="E17" s="50"/>
@@ -9380,7 +10539,7 @@
       <c r="H17" s="60"/>
       <c r="I17" s="50"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:9">
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
       <c r="E18" s="50"/>
@@ -9389,7 +10548,7 @@
       <c r="H18" s="60"/>
       <c r="I18" s="50"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:9">
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
       <c r="E19" s="50"/>
@@ -9398,7 +10557,7 @@
       <c r="H19" s="60"/>
       <c r="I19" s="50"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:9">
       <c r="C20" s="60"/>
       <c r="D20" s="60"/>
       <c r="E20" s="50"/>
@@ -9407,7 +10566,7 @@
       <c r="H20" s="60"/>
       <c r="I20" s="50"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:9">
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="50"/>
@@ -9416,7 +10575,7 @@
       <c r="H21" s="60"/>
       <c r="I21" s="50"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:9">
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="50"/>
@@ -9425,7 +10584,7 @@
       <c r="H22" s="60"/>
       <c r="I22" s="50"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:9">
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
       <c r="E23" s="50"/>
@@ -9434,7 +10593,7 @@
       <c r="H23" s="60"/>
       <c r="I23" s="50"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:9">
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="50"/>
@@ -9443,7 +10602,7 @@
       <c r="H24" s="60"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:9">
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="50"/>
@@ -9452,7 +10611,7 @@
       <c r="H25" s="60"/>
       <c r="I25" s="50"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:9">
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="50"/>
@@ -9461,7 +10620,7 @@
       <c r="H26" s="60"/>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:9">
       <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="50"/>
@@ -9470,7 +10629,7 @@
       <c r="H27" s="60"/>
       <c r="I27" s="50"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:9">
       <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="50"/>
@@ -9479,7 +10638,7 @@
       <c r="H28" s="60"/>
       <c r="I28" s="50"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:9">
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
       <c r="E29" s="50"/>
@@ -9488,7 +10647,7 @@
       <c r="H29" s="60"/>
       <c r="I29" s="50"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:9">
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="50"/>
@@ -9505,43 +10664,834 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80C652-EB11-2747-89DA-E4ABA79A811D}">
+  <dimension ref="A2:T38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+    </row>
+    <row r="4" spans="1:20" ht="27" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="120" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="120" t="s">
+        <v>393</v>
+      </c>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+    </row>
+    <row r="5" spans="1:20" ht="16" thickBot="1">
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="101"/>
+    </row>
+    <row r="6" spans="1:20" ht="21" customHeight="1">
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="143" t="s">
+        <v>396</v>
+      </c>
+      <c r="G6" s="136"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="103"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="103"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="103"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="102"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="103"/>
+    </row>
+    <row r="10" spans="1:20" ht="16" thickBot="1">
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="102"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="103"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="102"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="103"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="102"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="103"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="102"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="103"/>
+    </row>
+    <row r="14" spans="1:20" ht="27" thickBot="1">
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="121" t="s">
+        <v>390</v>
+      </c>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="119" t="s">
+        <v>397</v>
+      </c>
+      <c r="M14" s="95"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="103"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="103"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="103"/>
+    </row>
+    <row r="17" spans="1:20" ht="26">
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="103"/>
+    </row>
+    <row r="18" spans="1:20" ht="26">
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="112"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="134" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="103"/>
+    </row>
+    <row r="19" spans="1:20" ht="27" thickBot="1">
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="103"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="103"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="103"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="103"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="103"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="103"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="95"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="103"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="103"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="95"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="103"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="95"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="103"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="130" t="s">
+        <v>395</v>
+      </c>
+      <c r="H29" s="97"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="103"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="95"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="130" t="s">
+        <v>395</v>
+      </c>
+      <c r="H30" s="97"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="103"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="D31" s="104"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="130" t="s">
+        <v>395</v>
+      </c>
+      <c r="H31" s="97"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="105"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
+      <c r="S31" s="97"/>
+      <c r="T31" s="103"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="C32" s="94"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="130" t="s">
+        <v>395</v>
+      </c>
+      <c r="H32" s="97"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="105"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="103"/>
+    </row>
+    <row r="33" spans="4:20" ht="16" thickBot="1">
+      <c r="D33" s="104"/>
+      <c r="E33" s="112"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="105"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="103"/>
+    </row>
+    <row r="34" spans="4:20" ht="26">
+      <c r="D34" s="104"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="123" t="s">
+        <v>391</v>
+      </c>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="105"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="103"/>
+    </row>
+    <row r="35" spans="4:20">
+      <c r="D35" s="104"/>
+      <c r="E35" s="112"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="105"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
+      <c r="S35" s="97"/>
+      <c r="T35" s="103"/>
+    </row>
+    <row r="36" spans="4:20">
+      <c r="D36" s="104"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="105"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="97"/>
+      <c r="T36" s="103"/>
+    </row>
+    <row r="37" spans="4:20" ht="16" thickBot="1">
+      <c r="D37" s="104"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="105"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="103"/>
+    </row>
+    <row r="38" spans="4:20" ht="16" thickBot="1">
+      <c r="D38" s="106"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="108"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" ht="16" thickBot="1">
       <c r="H2" s="70" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:21">
       <c r="G3" s="19"/>
       <c r="H3" s="20"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:21">
       <c r="G4" s="73" t="s">
         <v>333</v>
       </c>
       <c r="H4" s="74"/>
       <c r="I4" s="75"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:21">
       <c r="G5" s="73" t="s">
         <v>332</v>
       </c>
       <c r="H5" s="74"/>
       <c r="I5" s="75"/>
     </row>
-    <row r="6" spans="2:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" ht="16" thickBot="1">
       <c r="C6" s="71" t="s">
         <v>324</v>
       </c>
@@ -9554,7 +11504,7 @@
       <c r="H6" s="74"/>
       <c r="I6" s="75"/>
     </row>
-    <row r="7" spans="2:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" ht="16" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
@@ -9562,19 +11512,19 @@
       <c r="H7" s="26"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:21">
       <c r="B8" s="22"/>
       <c r="C8" s="76"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:21">
       <c r="B9" s="22"/>
       <c r="C9" s="77" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="24"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:21">
       <c r="B10" s="22"/>
       <c r="C10" s="78"/>
       <c r="D10" s="24"/>
@@ -9596,7 +11546,7 @@
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:21">
       <c r="B11" s="22"/>
       <c r="C11" s="78"/>
       <c r="D11" s="24"/>
@@ -9618,7 +11568,7 @@
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:21">
       <c r="B12" s="22"/>
       <c r="C12" s="78"/>
       <c r="D12" s="24"/>
@@ -9640,17 +11590,17 @@
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:21">
       <c r="B13" s="22"/>
       <c r="C13" s="78"/>
       <c r="D13" s="24"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:21">
       <c r="B14" s="22"/>
       <c r="C14" s="78"/>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:21">
       <c r="B15" s="22"/>
       <c r="C15" s="78"/>
       <c r="D15" s="24"/>
@@ -9661,42 +11611,42 @@
       <c r="I15" s="80"/>
       <c r="J15" s="80"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:21">
       <c r="B16" s="22"/>
       <c r="C16" s="78"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15">
       <c r="B17" s="22"/>
       <c r="C17" s="78"/>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15">
       <c r="B18" s="22"/>
       <c r="C18" s="78"/>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15">
       <c r="B19" s="22"/>
       <c r="C19" s="78"/>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15">
       <c r="B20" s="22"/>
       <c r="C20" s="78"/>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15">
       <c r="B21" s="22"/>
       <c r="C21" s="78"/>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" ht="16" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="78"/>
       <c r="D22" s="24"/>
     </row>
-    <row r="23" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" ht="16" thickBot="1">
       <c r="B23" s="22"/>
       <c r="C23" s="79"/>
       <c r="D23" s="24"/>
@@ -9706,7 +11656,7 @@
       <c r="I23" s="67"/>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" ht="16" thickBot="1">
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -9729,21 +11679,21 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15">
       <c r="F25" s="68"/>
       <c r="G25" s="68"/>
       <c r="H25" s="68"/>
       <c r="I25" s="68"/>
       <c r="J25" s="68"/>
     </row>
-    <row r="26" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" ht="16" thickBot="1">
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
       <c r="J26" s="69"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15">
       <c r="K28" s="72" t="s">
         <v>331</v>
       </c>
@@ -9752,7 +11702,7 @@
       <c r="N28" s="72"/>
       <c r="O28" s="66"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15">
       <c r="H32" s="80" t="s">
         <v>338</v>
       </c>
@@ -9765,33 +11715,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" ht="16" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="H2" s="19"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11">
       <c r="H3" s="22"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11">
       <c r="H4" s="22"/>
       <c r="I4" s="23" t="s">
         <v>368</v>
@@ -9799,36 +11749,36 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11">
       <c r="H5" s="22"/>
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11">
       <c r="H6" s="22"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11">
       <c r="H7" s="22"/>
       <c r="K7" s="23" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11">
       <c r="H8" s="22"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11">
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="16" thickBot="1">
       <c r="B10" t="s">
         <v>358</v>
       </c>
@@ -9837,12 +11787,12 @@
       <c r="J10" s="26"/>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11">
       <c r="B11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11">
       <c r="B12" t="s">
         <v>359</v>
       </c>
@@ -9850,17 +11800,17 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11">
       <c r="B13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="16" thickBot="1">
       <c r="B14" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="16" thickBot="1">
       <c r="D15" s="19"/>
       <c r="E15" s="21"/>
       <c r="F15" s="23"/>
@@ -9869,7 +11819,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="16" thickBot="1">
       <c r="D16" s="22" t="s">
         <v>363</v>
       </c>
@@ -9884,7 +11834,7 @@
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="4:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:11" ht="16" thickBot="1">
       <c r="D17" s="22" t="s">
         <v>364</v>
       </c>
@@ -9897,7 +11847,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="4:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:11" ht="16" thickBot="1">
       <c r="D18" s="22" t="s">
         <v>365</v>
       </c>
@@ -9912,7 +11862,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="4:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:11" ht="16" thickBot="1">
       <c r="D19" s="22" t="s">
         <v>367</v>
       </c>
@@ -9924,7 +11874,7 @@
       <c r="J19" s="23"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="4:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:11" ht="16" thickBot="1">
       <c r="D20" s="22" t="s">
         <v>366</v>
       </c>
@@ -9939,7 +11889,7 @@
       <c r="J20" s="23"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:11">
       <c r="D21" s="22"/>
       <c r="E21" s="24"/>
       <c r="F21" s="23"/>
@@ -9948,7 +11898,7 @@
       <c r="J21" s="23"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="4:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:11" ht="16" thickBot="1">
       <c r="D22" s="25"/>
       <c r="E22" s="27"/>
       <c r="F22" s="23"/>
@@ -9957,18 +11907,18 @@
       <c r="J22" s="23"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="4:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:11" ht="16" thickBot="1">
       <c r="H23" s="25"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:11">
       <c r="D24" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:11">
       <c r="I25" t="s">
         <v>377</v>
       </c>
@@ -9978,187 +11928,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="91"/>
-    <col min="2" max="2" width="13" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="91"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="90" t="s">
-        <v>381</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>379</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="96" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>382</v>
-      </c>
-      <c r="D4" s="97" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="88" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>382</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="88" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="96" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>383</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
-      <c r="B9" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-    </row>
-    <row r="10" spans="1:5" ht="12" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
-      <c r="B10" s="93" t="s">
-        <v>389</v>
-      </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="92"/>
-      <c r="B11" s="94" t="s">
-        <v>387</v>
-      </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="92"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="92"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/sundy.xlsx
+++ b/doc/sundy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F9023-EA33-9144-81C4-D96624F96D3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7749529-89CD-CA42-9492-D1A1FD953C37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="版本控制" sheetId="2" r:id="rId4"/>
     <sheet name="Lessson6_Adapter" sheetId="3" r:id="rId5"/>
     <sheet name="Lessson8_ContentProvider" sheetId="4" r:id="rId6"/>
-    <sheet name="消息机制_2" sheetId="10" r:id="rId7"/>
+    <sheet name="消息机制模型" sheetId="10" r:id="rId7"/>
     <sheet name="消息机制" sheetId="6" r:id="rId8"/>
     <sheet name="==与equals" sheetId="7" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId10"/>
